--- a/Dokumentáció/Projekt_Táblázatok.xlsx
+++ b/Dokumentáció/Projekt_Táblázatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07D9A0-6416-4893-9FA3-6DCB4883B625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BF3DB-3EE3-4F45-B21A-40C144AC9B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Blake-Router</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Weiss-Router</t>
   </si>
   <si>
-    <t>Weiss-Wifi Router</t>
-  </si>
-  <si>
     <t>Weiss-Laptop</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Weiss-telephely</t>
   </si>
   <si>
-    <t>Otthoni-telephely</t>
-  </si>
-  <si>
     <t>1 Router</t>
   </si>
   <si>
@@ -94,18 +88,12 @@
     <t>1 PC</t>
   </si>
   <si>
-    <t>2 Router</t>
-  </si>
-  <si>
     <t>2 Switch</t>
   </si>
   <si>
     <t>2 PC</t>
   </si>
   <si>
-    <t>1 Wireless Router</t>
-  </si>
-  <si>
     <t>1 Laptop</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>2 Server</t>
   </si>
   <si>
-    <t>Ruby-ASA_tűzfal</t>
-  </si>
-  <si>
     <t>255.255.255.248</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>10.0.0.1</t>
   </si>
   <si>
-    <t>g1/1</t>
-  </si>
-  <si>
     <t>g1/2</t>
   </si>
   <si>
@@ -175,40 +157,109 @@
     <t>192.168.10.20</t>
   </si>
   <si>
-    <t>Blake-Server1</t>
-  </si>
-  <si>
-    <t>Blake-Server2</t>
-  </si>
-  <si>
     <t>Ruby-Router1</t>
   </si>
   <si>
     <t>Ruby-Router2</t>
   </si>
   <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
     <t>10.0.0.22</t>
   </si>
   <si>
     <t>255.255.255.252</t>
   </si>
   <si>
-    <t>172.30.0.1</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
     <t>ASA Tűzfal</t>
   </si>
   <si>
-    <t>Layer 3 Switch</t>
+    <t>3 Router</t>
+  </si>
+  <si>
+    <t>1 Access Point</t>
+  </si>
+  <si>
+    <t>Yang-telephely</t>
+  </si>
+  <si>
+    <t>1 Wifi-Router</t>
+  </si>
+  <si>
+    <t>Ruby-Fő_Router</t>
+  </si>
+  <si>
+    <t>se0/1/0</t>
+  </si>
+  <si>
+    <t>se0/1/1</t>
+  </si>
+  <si>
+    <t>se0/2/0</t>
+  </si>
+  <si>
+    <t>10.0.0.17</t>
+  </si>
+  <si>
+    <t>10.0.0.21</t>
+  </si>
+  <si>
+    <t>10.0.0.25</t>
+  </si>
+  <si>
+    <t>g0/0/1</t>
+  </si>
+  <si>
+    <t>Tunnel 1</t>
+  </si>
+  <si>
+    <t>10.0.50.1</t>
+  </si>
+  <si>
+    <t>g0/0/1.100</t>
+  </si>
+  <si>
+    <t>192.168.100.2</t>
+  </si>
+  <si>
+    <t>192.168.100.3</t>
+  </si>
+  <si>
+    <t>10.0.50.2</t>
+  </si>
+  <si>
+    <t>10.0.0.18</t>
+  </si>
+  <si>
+    <t>172.16.30.1</t>
+  </si>
+  <si>
+    <t>Blake-ASA_tűzfal</t>
+  </si>
+  <si>
+    <t>g1/8</t>
+  </si>
+  <si>
+    <t>172.16.30.5</t>
+  </si>
+  <si>
+    <t>172.16.31.1</t>
+  </si>
+  <si>
+    <t>Blake-Ubuntu Server</t>
+  </si>
+  <si>
+    <t>Blake-Win Server</t>
+  </si>
+  <si>
+    <t>172.16.30.254</t>
+  </si>
+  <si>
+    <t>172.16.30.253</t>
+  </si>
+  <si>
+    <t>192.168.31.10</t>
   </si>
 </sst>
 </file>
@@ -245,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -416,13 +467,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -431,102 +493,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -847,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377E1871-5BE3-4102-A196-0C470A600A9B}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A2:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,522 +922,658 @@
     <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="26"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="27"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="31"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="32" t="s">
+      <c r="F19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="32"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="32"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="19" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="32"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="19" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="32"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="32"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C18" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C19" s="31"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="31"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C23" s="32"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="30"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C25" s="31"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="29" t="s">
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
+      <c r="D37" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="F9:G9"/>
+  <mergeCells count="93">
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H15:I15"/>
@@ -1392,58 +1591,56 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J2:K3"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="L2:M3"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C18:D21"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C12:D17"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1453,121 +1650,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209D596-D31B-4ABA-9CBA-D31D5264E8EF}">
   <dimension ref="C7:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1587,15 +1782,15 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentáció/Projekt_Táblázatok.xlsx
+++ b/Dokumentáció/Projekt_Táblázatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E40E91-71A2-4536-B293-DCCC297A89C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C44830D-3E4D-4372-8D9A-7F923111B707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{0C3DA0FB-A15A-46D2-BC08-5B9078606979}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Címek" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,6 +387,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -807,15 +819,273 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -832,293 +1102,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377E1871-5BE3-4102-A196-0C470A600A9B}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -1457,167 +1487,167 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="K2" s="78"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="79"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="82" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="83"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
     </row>
     <row r="5" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="82"/>
       <c r="D5" s="83"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="82" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="83"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="82"/>
       <c r="D7" s="83"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="3:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="36" t="s">
@@ -1629,498 +1659,585 @@
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="3:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="47"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="45" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="45" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="47"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="45" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="47"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="47"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="47"/>
+      <c r="K19" s="31"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="45" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="47"/>
+      <c r="K20" s="31"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="45" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46" t="s">
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="47"/>
+      <c r="K21" s="31"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="47"/>
+      <c r="K22" s="31"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="45" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46" t="s">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="47"/>
+      <c r="K23" s="31"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="47"/>
+      <c r="K24" s="31"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="45" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="47"/>
+      <c r="K25" s="31"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="45" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="45" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46" t="s">
+      <c r="G27" s="30"/>
+      <c r="H27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46" t="s">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="47"/>
+      <c r="K27" s="31"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="51" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50" t="s">
+      <c r="I28" s="32"/>
+      <c r="J28" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="52"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60" t="s">
+      <c r="G31" s="34"/>
+      <c r="H31" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60" t="s">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="61"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="63" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="64" t="s">
+      <c r="G32" s="61"/>
+      <c r="H32" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="67" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="71" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="73"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="3:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="75" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="77"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C18:D21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C12:D17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J6:K6"/>
@@ -2145,93 +2262,6 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C18:D21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C12:D17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C22:D26"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2241,131 +2271,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209D596-D31B-4ABA-9CBA-D31D5264E8EF}">
   <dimension ref="C7:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -2382,6 +2403,15 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
